--- a/Review Destinasi Wisata Trenggalek/excel/Review_Rumah Apung.xlsx
+++ b/Review Destinasi Wisata Trenggalek/excel/Review_Rumah Apung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haris\OneDrive\Documents\TB Datamine (Datasets)\Review Destinasi Wisata Trenggalek\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42947A8-4F32-4B1D-86D6-D5E5FFFCE5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4A4228-BA51-4B43-9CBE-49005770FA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>author_title</t>
-  </si>
-  <si>
     <t>review_text</t>
   </si>
   <si>
@@ -38,54 +35,6 @@
   </si>
   <si>
     <t>Rumah apung mutiara</t>
-  </si>
-  <si>
-    <t>Kenko M. Nasrulhaq</t>
-  </si>
-  <si>
-    <t>Bara Primarta</t>
-  </si>
-  <si>
-    <t>farid al faridzi</t>
-  </si>
-  <si>
-    <t>zuddin sentrakaligrafi</t>
-  </si>
-  <si>
-    <t>Wowrisang</t>
-  </si>
-  <si>
-    <t>Sakura</t>
-  </si>
-  <si>
-    <t>Nur Lailatul Unzilah</t>
-  </si>
-  <si>
-    <t>Baron Sakti</t>
-  </si>
-  <si>
-    <t>Atma's Luqman Kang Luqman</t>
-  </si>
-  <si>
-    <t>Om Djonod</t>
-  </si>
-  <si>
-    <t>BADAS CHANEL</t>
-  </si>
-  <si>
-    <t>fajar Anugrah123</t>
-  </si>
-  <si>
-    <t>Coolrizk Boenthil</t>
-  </si>
-  <si>
-    <t>Ayub 123</t>
-  </si>
-  <si>
-    <t>Aan Handika</t>
-  </si>
-  <si>
-    <t>Adam Taufan</t>
   </si>
   <si>
     <t>Tempat nya keren buat casting, jigging . Ikan nya berlimpah</t>
@@ -116,31 +65,10 @@
     <t>Tempat yg bagus sekali untuk berenang dilaut lepas. Cocok untuk kawula muda yang haus tantangan. Tiket masuk sangat murah meriah dan suasananya sangat enak sekali bisa mancing bagi penggemar pancing.</t>
   </si>
   <si>
-    <t>01/01/2025 14:45:31</t>
-  </si>
-  <si>
-    <t>01/20/2024 02:18:55</t>
-  </si>
-  <si>
-    <t>06/04/2023 10:47:27</t>
-  </si>
-  <si>
-    <t>01/04/2022 04:03:28</t>
-  </si>
-  <si>
     <t>12/31/2021 04:11:39</t>
   </si>
   <si>
-    <t>10/20/2021 10:32:15</t>
-  </si>
-  <si>
-    <t>10/18/2021 13:28:48</t>
-  </si>
-  <si>
     <t>09/26/2021 06:04:56</t>
-  </si>
-  <si>
-    <t>08/18/2021 02:24:37</t>
   </si>
   <si>
     <t>08/02/2021 17:19:38</t>
@@ -220,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -231,10 +159,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,19 +466,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -561,14 +487,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -576,12 +499,10 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -590,9 +511,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
-      <c r="Z1" s="5"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="5"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
@@ -603,253 +522,128 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
+      <c r="D9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
